--- a/PINS.xlsx
+++ b/PINS.xlsx
@@ -1,90 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\python-academy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7874bdcc0642262c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6878A0E-4291-4B11-B16E-A9C4BCBB10D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17175"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{6B9D7A11-F366-4848-B715-BABCA849DA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Profit = Revenue - Expenses</t>
-  </si>
-  <si>
-    <t>Net Income = Profit - Tax</t>
-  </si>
-  <si>
-    <t>The Income Statement Components</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Cost of goods sold</t>
-  </si>
-  <si>
-    <t>Operating expenses</t>
-  </si>
-  <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t>Depreciation and amortization</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Non-recurring and extraordinary items</t>
-  </si>
-  <si>
-    <t>Distributions</t>
-  </si>
-  <si>
-    <t>Gross profit = Revenue - Cost of goods sold</t>
-  </si>
-  <si>
-    <t>Selling, general, and administrative</t>
-  </si>
-  <si>
-    <t>Advertising and marketing</t>
-  </si>
-  <si>
-    <t>Research and development</t>
-  </si>
-  <si>
-    <t>The Income Statement (pp 3 - 50)</t>
-  </si>
-  <si>
-    <t>Earnings before interest, taxes, depreciation, and amortization = Revenue - COGS - Operating expenses + Other income</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Common A</t>
+  </si>
+  <si>
+    <t>Common B</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>MAU</t>
+  </si>
+  <si>
+    <t>Monthly Active Users</t>
+  </si>
+  <si>
+    <t>ARPU</t>
+  </si>
+  <si>
+    <t>Average Revenue Per User</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,15 +76,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,13 +103,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,7 +152,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -183,7 +164,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -230,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,121 +431,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0017D1FD-390B-48C9-88A5-CD432415A188}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="15.52734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="5">
+        <v>43763</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>306232554</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2">
+        <v>251993740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="5">
+        <v>43578</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>75000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>